--- a/data/Q1_Report_Input.xlsx
+++ b/data/Q1_Report_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hohimerwealthmanagement-my.sharepoint.com/personal/eknudsen_hohimerwealthmanagement_com/Documents/Documents/_WORK_PROJECTS/Q_REPORT_EXCEL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="585" documentId="13_ncr:1_{35C52981-7DDD-4176-AA7E-E153F0BCE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D40FE8D-1548-456C-B4E7-8BAEAED9AD8B}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="13_ncr:1_{35C52981-7DDD-4176-AA7E-E153F0BCE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6085FA9-D525-47CA-8E58-0AA22025AD26}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" activeTab="8" xr2:uid="{E7F7138F-C45B-43F5-B492-C951A2E0616E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" activeTab="3" xr2:uid="{E7F7138F-C45B-43F5-B492-C951A2E0616E}"/>
   </bookViews>
   <sheets>
     <sheet name="total_recap" sheetId="31" r:id="rId1"/>
@@ -8481,7 +8481,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C38FA47-D6FC-465D-A66D-FB278037A920}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -12618,7 +12618,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -15830,7 +15830,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -16553,7 +16553,7 @@
   </sheetPr>
   <dimension ref="B1:N122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/data/Q1_Report_Input.xlsx
+++ b/data/Q1_Report_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hohimerwealthmanagement-my.sharepoint.com/personal/eknudsen_hohimerwealthmanagement_com/Documents/Documents/_WORK_PROJECTS/Q_REPORT_EXCEL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="13_ncr:1_{35C52981-7DDD-4176-AA7E-E153F0BCE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6085FA9-D525-47CA-8E58-0AA22025AD26}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{35C52981-7DDD-4176-AA7E-E153F0BCE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0271A0-EBC6-4EBB-AD9B-169250141515}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" activeTab="3" xr2:uid="{E7F7138F-C45B-43F5-B492-C951A2E0616E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" activeTab="8" xr2:uid="{E7F7138F-C45B-43F5-B492-C951A2E0616E}"/>
   </bookViews>
   <sheets>
     <sheet name="total_recap" sheetId="31" r:id="rId1"/>
@@ -2782,6 +2782,262 @@
   </cellStyles>
   <dxfs count="225">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -3464,262 +3720,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7899,18 +7899,17 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5462F27B-0E15-4CDC-B0C8-32B85ACF86AC}" name="Sector Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{BC1704F0-A59B-4D7D-8339-EB9E492D50DC}" name=" " dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{38A47BCD-3B83-458D-B334-A2589CEE0424}" name="  " dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{68E2C2A3-BDA9-4FA3-A1C4-4B8BF9849FA1}" name="Old Total (%)" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{5462F27B-0E15-4CDC-B0C8-32B85ACF86AC}" name="Sector Name" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BC1704F0-A59B-4D7D-8339-EB9E492D50DC}" name=" " dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{38A47BCD-3B83-458D-B334-A2589CEE0424}" name="  " dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{68E2C2A3-BDA9-4FA3-A1C4-4B8BF9849FA1}" name="Old Total (%)" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>SUMIFS(E$23:E$1005, B$23:B$1005, $B5)*100</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table51014[Old Total (%)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{97258E60-03D8-444E-9A50-715C6752AC40}" name="New Total (%)" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
-      <calculatedColumnFormula>SUMIFS(F$23:F$1005, B$23:B$1005, $B5)*100</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{97258E60-03D8-444E-9A50-715C6752AC40}" name="New Total (%)" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
       <totalsRowFormula>SUM(Table51014[New Total (%)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{416B6668-950D-450A-8921-7E87CD8E3FD1}" name="Diff (%)" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="6" xr3:uid="{416B6668-950D-450A-8921-7E87CD8E3FD1}" name="Diff (%)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0">
       <calculatedColumnFormula>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table51014[Diff (%)])</totalsRowFormula>
     </tableColumn>
@@ -7920,39 +7919,39 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6186D3A-F662-4495-AB2F-68F08F2392E9}" name="Table2615" displayName="Table2615" ref="B19:D24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6186D3A-F662-4495-AB2F-68F08F2392E9}" name="Table2615" displayName="Table2615" ref="B19:D24" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="B19:D24" xr:uid="{8DB26A20-787C-43B8-A63B-01E9EE9BD3C5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{207E2F38-535E-4DAE-B70C-CB4CFCB4AA0B}" name="Region" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{46168D10-D7AA-4CE9-9C47-BE370F0F38C7}" name="Holdings" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{5D327E04-A921-4B80-B79D-97B677F58125}" name="Weight (%)" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{207E2F38-535E-4DAE-B70C-CB4CFCB4AA0B}" name="Region" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{46168D10-D7AA-4CE9-9C47-BE370F0F38C7}" name="Holdings" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{5D327E04-A921-4B80-B79D-97B677F58125}" name="Weight (%)" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C77025C4-0DD4-4F09-BD01-5E1D5147C265}" name="Table3716" displayName="Table3716" ref="B6:D16" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C77025C4-0DD4-4F09-BD01-5E1D5147C265}" name="Table3716" displayName="Table3716" ref="B6:D16" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B6:D16" xr:uid="{B2882D68-E64E-464C-B8E3-7F26C366DDFA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2ECDC4D7-26B5-4FCB-BCDA-F31018797404}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A78CBEE6-EA8A-401D-BA98-032A4C575F64}" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D113CDE1-F49A-427A-B8E0-95BE8654399E}" name="Weight (%)" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2ECDC4D7-26B5-4FCB-BCDA-F31018797404}" name="Rank" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A78CBEE6-EA8A-401D-BA98-032A4C575F64}" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{D113CDE1-F49A-427A-B8E0-95BE8654399E}" name="Weight (%)" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E6A577AD-553E-447A-AE46-27167EF5D44C}" name="Table4817" displayName="Table4817" ref="B28:E34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E6A577AD-553E-447A-AE46-27167EF5D44C}" name="Table4817" displayName="Table4817" ref="B28:E34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B28:E34" xr:uid="{A8BB315C-D0D6-42B9-8CB1-DB66CBD97C9C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7960,17 +7959,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B2C7FB61-C6C4-4AFC-91D0-1686661E0C92}" name="Metric" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{0C686984-CA47-4F2B-A2F0-743BD468CF54}" name="Portfolio" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C214B383-C443-4F08-8340-1F085F7D06AF}" name="Benchmark" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{0C90CD3A-0968-4E3E-9380-6699C232E195}" name="Difference" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B2C7FB61-C6C4-4AFC-91D0-1686661E0C92}" name="Metric" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0C686984-CA47-4F2B-A2F0-743BD468CF54}" name="Portfolio" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C214B383-C443-4F08-8340-1F085F7D06AF}" name="Benchmark" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{0C90CD3A-0968-4E3E-9380-6699C232E195}" name="Difference" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5B1A5B2D-8DF0-42BE-BAC4-8436C66029A9}" name="Table119" displayName="Table119" ref="B18:G28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5B1A5B2D-8DF0-42BE-BAC4-8436C66029A9}" name="Table119" displayName="Table119" ref="B18:G28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B18:G28" xr:uid="{5B1A5B2D-8DF0-42BE-BAC4-8436C66029A9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7980,12 +7979,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3885939B-3978-4380-88D7-78EE1E6DE4A9}" name="Pricing Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8491B8D9-7B3C-4199-B27D-7113D902E3F6}" name="Bank" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B8F6D172-2049-4FE5-9A13-5613F3AAF08E}" name="Ticker" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{83224D25-E071-4D16-8085-E36BF42DAF5D}" name="Short Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1430A05F-E441-40A9-A003-9A03B195329D}" name="GICS Sector" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{8CE37713-3594-4CA4-9265-09267DE84901}" name="Coupon" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3885939B-3978-4380-88D7-78EE1E6DE4A9}" name="Pricing Date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8491B8D9-7B3C-4199-B27D-7113D902E3F6}" name="Bank" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B8F6D172-2049-4FE5-9A13-5613F3AAF08E}" name="Ticker" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{83224D25-E071-4D16-8085-E36BF42DAF5D}" name="Short Name" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1430A05F-E441-40A9-A003-9A03B195329D}" name="GICS Sector" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8CE37713-3594-4CA4-9265-09267DE84901}" name="Coupon" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8544,7 +8543,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -10217,7 +10216,7 @@
   </sheetPr>
   <dimension ref="B1:N122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
@@ -12589,7 +12588,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:G113">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>ISEVEN(SUMPRODUCT(--($B$23:$B23&lt;&gt;$B$22:$B22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12618,7 +12617,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -15797,12 +15796,12 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:G105 B107:G115">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>ISEVEN(SUMPRODUCT(--($B$23:$B23&lt;&gt;$B$22:$B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:G106">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>ISEVEN(SUMPRODUCT(--($B$23:$B106&lt;&gt;$B$22:$B103)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16553,8 +16552,8 @@
   </sheetPr>
   <dimension ref="B1:N122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16645,13 +16644,12 @@
         <f t="shared" ref="E5:E15" si="0">SUMIFS(E$23:E$1005, B$23:B$1005, $B5)*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="163">
-        <f t="shared" ref="F5:F15" si="1">SUMIFS(F$23:F$1005, B$23:B$1005, $B5)*100</f>
-        <v>0</v>
+      <c r="F5" s="2">
+        <v>17.7</v>
       </c>
       <c r="G5" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>132</v>
@@ -16667,13 +16665,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F6" s="2">
+        <v>17.5</v>
       </c>
       <c r="G6" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>133</v>
@@ -16689,13 +16686,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F7" s="2">
+        <v>10.7</v>
       </c>
       <c r="G7" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>148</v>
@@ -16711,13 +16707,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F8" s="2">
+        <v>6.8</v>
       </c>
       <c r="G8" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>162</v>
@@ -16736,13 +16731,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F9" s="2">
+        <v>13.4</v>
       </c>
       <c r="G9" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>167</v>
@@ -16758,13 +16752,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F10" s="2">
+        <v>1.3</v>
       </c>
       <c r="G10" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>204</v>
@@ -16780,13 +16773,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F11" s="2">
+        <v>13.7</v>
       </c>
       <c r="G11" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>214</v>
@@ -16802,13 +16794,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F12" s="2">
+        <v>2.8</v>
       </c>
       <c r="G12" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>233</v>
@@ -16824,13 +16815,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F13" s="2">
+        <v>7.9</v>
       </c>
       <c r="G13" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>228</v>
@@ -16846,13 +16836,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F14" s="2">
+        <v>6.5</v>
       </c>
       <c r="G14" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>209</v>
@@ -16868,13 +16857,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="163">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F15" s="2">
+        <v>1.8</v>
       </c>
       <c r="G15" s="163">
         <f>Table51014[[#This Row],[New Total (%)]]-Table51014[[#This Row],[Old Total (%)]]</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>193</v>
@@ -16892,11 +16880,11 @@
       </c>
       <c r="F16" s="163">
         <f>SUM(Table51014[New Total (%)])</f>
-        <v>0</v>
+        <v>100.10000000000001</v>
       </c>
       <c r="G16" s="163">
         <f>SUM(Table51014[Diff (%)])</f>
-        <v>0</v>
+        <v>100.10000000000001</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -17857,7 +17845,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:G113">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>ISEVEN(SUMPRODUCT(--($B$23:$B23&lt;&gt;$B$22:$B22)))</formula>
     </cfRule>
   </conditionalFormatting>
